--- a/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative_Images_DC16.xlsx
+++ b/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative_Images_DC16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24520" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="2217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="2216">
   <si>
     <t>liv_013001</t>
   </si>
@@ -5803,9 +5803,6 @@
   </si>
   <si>
     <t>Copyright Erin Cheatham. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
-  </si>
-  <si>
-    <t>Copyright Jared McDonal. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
   </si>
   <si>
     <t>Copyright Adrian Wisnicki. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
@@ -6786,7 +6783,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="406">
+  <cellStyleXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6848,6 +6845,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7260,7 +7259,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="406">
+  <cellStyles count="408">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7472,6 +7471,7 @@
     <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7666,6 +7666,7 @@
     <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7998,8 +7999,8 @@
   <dimension ref="A1:I1167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1121" sqref="I1121:I1167"/>
+      <pane ySplit="1" topLeftCell="A1117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1120" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29535,7 +29536,7 @@
       </c>
       <c r="H801" s="9"/>
       <c r="I801" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="30">
@@ -29562,7 +29563,7 @@
       </c>
       <c r="H802" s="9"/>
       <c r="I802" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="803" spans="1:9" ht="30">
@@ -29589,7 +29590,7 @@
       </c>
       <c r="H803" s="9"/>
       <c r="I803" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="804" spans="1:9" ht="30">
@@ -29616,7 +29617,7 @@
       </c>
       <c r="H804" s="9"/>
       <c r="I804" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="805" spans="1:9" ht="30">
@@ -29643,7 +29644,7 @@
       </c>
       <c r="H805" s="9"/>
       <c r="I805" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="806" spans="1:9" ht="30">
@@ -29670,7 +29671,7 @@
       </c>
       <c r="H806" s="9"/>
       <c r="I806" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="807" spans="1:9" ht="30">
@@ -29697,7 +29698,7 @@
       </c>
       <c r="H807" s="9"/>
       <c r="I807" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="808" spans="1:9" ht="30">
@@ -29724,7 +29725,7 @@
       </c>
       <c r="H808" s="9"/>
       <c r="I808" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="809" spans="1:9" ht="30">
@@ -29751,7 +29752,7 @@
       </c>
       <c r="H809" s="9"/>
       <c r="I809" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="810" spans="1:9" ht="30">
@@ -29778,7 +29779,7 @@
       </c>
       <c r="H810" s="9"/>
       <c r="I810" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="811" spans="1:9" ht="30">
@@ -29805,7 +29806,7 @@
       </c>
       <c r="H811" s="9"/>
       <c r="I811" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="812" spans="1:9" ht="30">
@@ -29832,7 +29833,7 @@
       </c>
       <c r="H812" s="9"/>
       <c r="I812" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="30">
@@ -29859,7 +29860,7 @@
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="814" spans="1:9" ht="30">
@@ -29886,7 +29887,7 @@
       </c>
       <c r="H814" s="9"/>
       <c r="I814" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="30">
@@ -29913,7 +29914,7 @@
       </c>
       <c r="H815" s="9"/>
       <c r="I815" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="816" spans="1:9" ht="30">
@@ -29940,7 +29941,7 @@
       </c>
       <c r="H816" s="9"/>
       <c r="I816" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="817" spans="1:9" ht="30">
@@ -29967,7 +29968,7 @@
       </c>
       <c r="H817" s="9"/>
       <c r="I817" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="818" spans="1:9" ht="30">
@@ -29994,7 +29995,7 @@
       </c>
       <c r="H818" s="9"/>
       <c r="I818" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="819" spans="1:9" ht="30">
@@ -30021,7 +30022,7 @@
       </c>
       <c r="H819" s="9"/>
       <c r="I819" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="820" spans="1:9" ht="30">
@@ -30048,7 +30049,7 @@
       </c>
       <c r="H820" s="9"/>
       <c r="I820" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -30075,7 +30076,7 @@
       </c>
       <c r="H821" s="9"/>
       <c r="I821" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="822" spans="1:9" ht="30">
@@ -30102,7 +30103,7 @@
       </c>
       <c r="H822" s="9"/>
       <c r="I822" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="823" spans="1:9" ht="30">
@@ -30129,7 +30130,7 @@
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="14" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="30">
@@ -30156,7 +30157,7 @@
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="14" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="825" spans="1:9" ht="30">
@@ -30183,7 +30184,7 @@
       </c>
       <c r="H825" s="9"/>
       <c r="I825" s="14" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="826" spans="1:9" ht="30">
@@ -30210,7 +30211,7 @@
       </c>
       <c r="H826" s="9"/>
       <c r="I826" s="14" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="827" spans="1:9" ht="30">
@@ -30237,7 +30238,7 @@
       </c>
       <c r="H827" s="9"/>
       <c r="I827" s="14" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="828" spans="1:9" ht="45">
@@ -30264,7 +30265,7 @@
       </c>
       <c r="H828" s="9"/>
       <c r="I828" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="829" spans="1:9" ht="45">
@@ -30291,7 +30292,7 @@
       </c>
       <c r="H829" s="9"/>
       <c r="I829" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="830" spans="1:9" ht="60">
@@ -30318,7 +30319,7 @@
       </c>
       <c r="H830" s="9"/>
       <c r="I830" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="831" spans="1:9" ht="60">
@@ -30345,7 +30346,7 @@
       </c>
       <c r="H831" s="9"/>
       <c r="I831" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="832" spans="1:9" ht="60">
@@ -30831,7 +30832,7 @@
       </c>
       <c r="H849" s="9"/>
       <c r="I849" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="850" spans="1:9" ht="30">
@@ -31776,7 +31777,7 @@
       </c>
       <c r="H884" s="9"/>
       <c r="I884" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="885" spans="1:9" ht="30">
@@ -31803,7 +31804,7 @@
       </c>
       <c r="H885" s="9"/>
       <c r="I885" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="886" spans="1:9" ht="30">
@@ -31830,7 +31831,7 @@
       </c>
       <c r="H886" s="9"/>
       <c r="I886" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="887" spans="1:9" ht="30">
@@ -31857,7 +31858,7 @@
       </c>
       <c r="H887" s="9"/>
       <c r="I887" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="888" spans="1:9" ht="30">
@@ -31884,7 +31885,7 @@
       </c>
       <c r="H888" s="9"/>
       <c r="I888" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="889" spans="1:9" ht="30">
@@ -31911,7 +31912,7 @@
       </c>
       <c r="H889" s="9"/>
       <c r="I889" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="890" spans="1:9" ht="30">
@@ -31938,7 +31939,7 @@
       </c>
       <c r="H890" s="9"/>
       <c r="I890" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="891" spans="1:9" ht="30">
@@ -31965,7 +31966,7 @@
       </c>
       <c r="H891" s="9"/>
       <c r="I891" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="892" spans="1:9" ht="30">
@@ -31992,7 +31993,7 @@
       </c>
       <c r="H892" s="9"/>
       <c r="I892" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="893" spans="1:9" ht="30">
@@ -32019,7 +32020,7 @@
       </c>
       <c r="H893" s="9"/>
       <c r="I893" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="894" spans="1:9" ht="30">
@@ -32046,7 +32047,7 @@
       </c>
       <c r="H894" s="9"/>
       <c r="I894" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="895" spans="1:9" ht="30">
@@ -32073,7 +32074,7 @@
       </c>
       <c r="H895" s="9"/>
       <c r="I895" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="896" spans="1:9" ht="30">
@@ -32100,7 +32101,7 @@
       </c>
       <c r="H896" s="9"/>
       <c r="I896" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="897" spans="1:9" ht="30">
@@ -32127,7 +32128,7 @@
       </c>
       <c r="H897" s="9"/>
       <c r="I897" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="898" spans="1:9" ht="30">
@@ -32154,7 +32155,7 @@
       </c>
       <c r="H898" s="9"/>
       <c r="I898" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30">
@@ -32181,7 +32182,7 @@
       </c>
       <c r="H899" s="9"/>
       <c r="I899" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="900" spans="1:9" ht="30">
@@ -32208,7 +32209,7 @@
       </c>
       <c r="H900" s="9"/>
       <c r="I900" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="901" spans="1:9" ht="30">
@@ -32235,7 +32236,7 @@
       </c>
       <c r="H901" s="9"/>
       <c r="I901" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="30">
@@ -32262,7 +32263,7 @@
       </c>
       <c r="H902" s="9"/>
       <c r="I902" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="903" spans="1:9" ht="30">
@@ -32289,7 +32290,7 @@
       </c>
       <c r="H903" s="9"/>
       <c r="I903" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="904" spans="1:9" ht="30">
@@ -32316,7 +32317,7 @@
       </c>
       <c r="H904" s="9"/>
       <c r="I904" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="30">
@@ -32343,7 +32344,7 @@
       </c>
       <c r="H905" s="9"/>
       <c r="I905" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="906" spans="1:9" ht="30">
@@ -32370,7 +32371,7 @@
       </c>
       <c r="H906" s="9"/>
       <c r="I906" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="907" spans="1:9" ht="30">
@@ -32397,7 +32398,7 @@
       </c>
       <c r="H907" s="9"/>
       <c r="I907" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="908" spans="1:9" ht="30">
@@ -32424,7 +32425,7 @@
       </c>
       <c r="H908" s="9"/>
       <c r="I908" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="909" spans="1:9" ht="30">
@@ -32451,7 +32452,7 @@
       </c>
       <c r="H909" s="9"/>
       <c r="I909" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="910" spans="1:9" ht="30">
@@ -32478,7 +32479,7 @@
       </c>
       <c r="H910" s="9"/>
       <c r="I910" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="911" spans="1:9" ht="30">
@@ -32505,7 +32506,7 @@
       </c>
       <c r="H911" s="9"/>
       <c r="I911" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="912" spans="1:9" ht="30">
@@ -32532,7 +32533,7 @@
       </c>
       <c r="H912" s="9"/>
       <c r="I912" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="913" spans="1:9" ht="30">
@@ -32559,7 +32560,7 @@
       </c>
       <c r="H913" s="9"/>
       <c r="I913" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="914" spans="1:9" ht="30">
@@ -32586,7 +32587,7 @@
       </c>
       <c r="H914" s="9"/>
       <c r="I914" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="915" spans="1:9" ht="45">
@@ -32613,7 +32614,7 @@
       </c>
       <c r="H915" s="9"/>
       <c r="I915" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="916" spans="1:9" ht="45">
@@ -32640,7 +32641,7 @@
       </c>
       <c r="H916" s="9"/>
       <c r="I916" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="917" spans="1:9" ht="30">
@@ -32667,7 +32668,7 @@
       </c>
       <c r="H917" s="9"/>
       <c r="I917" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="918" spans="1:9" ht="30">
@@ -32694,7 +32695,7 @@
       </c>
       <c r="H918" s="9"/>
       <c r="I918" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="919" spans="1:9" ht="30">
@@ -32721,7 +32722,7 @@
       </c>
       <c r="H919" s="9"/>
       <c r="I919" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="920" spans="1:9" ht="30">
@@ -32748,7 +32749,7 @@
       </c>
       <c r="H920" s="9"/>
       <c r="I920" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="921" spans="1:9" ht="30">
@@ -32775,7 +32776,7 @@
       </c>
       <c r="H921" s="9"/>
       <c r="I921" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="922" spans="1:9" ht="30">
@@ -32802,7 +32803,7 @@
       </c>
       <c r="H922" s="9"/>
       <c r="I922" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="923" spans="1:9" ht="30">
@@ -32829,7 +32830,7 @@
       </c>
       <c r="H923" s="9"/>
       <c r="I923" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="924" spans="1:9" ht="30">
@@ -32856,7 +32857,7 @@
       </c>
       <c r="H924" s="9"/>
       <c r="I924" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="925" spans="1:9" ht="30">
@@ -32883,7 +32884,7 @@
       </c>
       <c r="H925" s="9"/>
       <c r="I925" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="926" spans="1:9" ht="30">
@@ -32910,7 +32911,7 @@
       </c>
       <c r="H926" s="9"/>
       <c r="I926" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="927" spans="1:9" ht="30">
@@ -32937,7 +32938,7 @@
       </c>
       <c r="H927" s="9"/>
       <c r="I927" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="928" spans="1:9" ht="30">
@@ -32964,7 +32965,7 @@
       </c>
       <c r="H928" s="9"/>
       <c r="I928" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="929" spans="1:9" ht="30">
@@ -32991,7 +32992,7 @@
       </c>
       <c r="H929" s="9"/>
       <c r="I929" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="930" spans="1:9" ht="30">
@@ -33018,7 +33019,7 @@
       </c>
       <c r="H930" s="9"/>
       <c r="I930" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="931" spans="1:9" ht="30">
@@ -33045,7 +33046,7 @@
       </c>
       <c r="H931" s="9"/>
       <c r="I931" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="30">
@@ -33072,7 +33073,7 @@
       </c>
       <c r="H932" s="9"/>
       <c r="I932" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="933" spans="1:9" ht="30">
@@ -33099,7 +33100,7 @@
       </c>
       <c r="H933" s="9"/>
       <c r="I933" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="934" spans="1:9" ht="45">
@@ -33126,7 +33127,7 @@
       </c>
       <c r="H934" s="9"/>
       <c r="I934" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="935" spans="1:9" ht="30">
@@ -33153,7 +33154,7 @@
       </c>
       <c r="H935" s="9"/>
       <c r="I935" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="30">
@@ -33180,7 +33181,7 @@
       </c>
       <c r="H936" s="9"/>
       <c r="I936" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="937" spans="1:9" ht="30">
@@ -33207,7 +33208,7 @@
       </c>
       <c r="H937" s="9"/>
       <c r="I937" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="938" spans="1:9" ht="30">
@@ -33234,12 +33235,12 @@
       </c>
       <c r="H938" s="9"/>
       <c r="I938" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="939" spans="1:9" ht="75">
       <c r="A939" s="18" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B939" s="10" t="s">
         <v>1744</v>
@@ -33263,12 +33264,12 @@
         <v>700</v>
       </c>
       <c r="I939" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="940" spans="1:9" ht="45">
       <c r="A940" s="19" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B940" s="10" t="s">
         <v>1745</v>
@@ -33292,12 +33293,12 @@
         <v>702</v>
       </c>
       <c r="I940" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="941" spans="1:9" ht="75">
       <c r="A941" s="19" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B941" s="10" t="s">
         <v>1746</v>
@@ -33321,12 +33322,12 @@
         <v>700</v>
       </c>
       <c r="I941" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="942" spans="1:9" ht="30">
       <c r="A942" s="19" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B942" s="10" t="s">
         <v>1745</v>
@@ -33355,7 +33356,7 @@
     </row>
     <row r="943" spans="1:9" ht="75">
       <c r="A943" s="19" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B943" s="10" t="s">
         <v>1747</v>
@@ -33379,12 +33380,12 @@
         <v>700</v>
       </c>
       <c r="I943" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="944" spans="1:9" ht="75">
       <c r="A944" s="19" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B944" s="10" t="s">
         <v>1748</v>
@@ -33408,12 +33409,12 @@
         <v>700</v>
       </c>
       <c r="I944" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="75">
       <c r="A945" s="19" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B945" s="10" t="s">
         <v>1749</v>
@@ -33437,12 +33438,12 @@
         <v>700</v>
       </c>
       <c r="I945" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="19" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B946" s="10" t="s">
         <v>1750</v>
@@ -33464,12 +33465,12 @@
       </c>
       <c r="H946" s="9"/>
       <c r="I946" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="947" spans="1:9" ht="30">
       <c r="A947" s="19" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B947" s="10" t="s">
         <v>1751</v>
@@ -33491,12 +33492,12 @@
       </c>
       <c r="H947" s="9"/>
       <c r="I947" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="948" spans="1:9" ht="75">
       <c r="A948" s="19" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B948" s="10" t="s">
         <v>1752</v>
@@ -33520,12 +33521,12 @@
         <v>700</v>
       </c>
       <c r="I948" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="949" spans="1:9" ht="75">
       <c r="A949" s="19" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B949" s="10" t="s">
         <v>1753</v>
@@ -33549,12 +33550,12 @@
         <v>700</v>
       </c>
       <c r="I949" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="950" spans="1:9" ht="75">
       <c r="A950" s="19" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B950" s="10" t="s">
         <v>1754</v>
@@ -33578,12 +33579,12 @@
         <v>700</v>
       </c>
       <c r="I950" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="951" spans="1:9" ht="75">
       <c r="A951" s="19" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B951" s="10" t="s">
         <v>1755</v>
@@ -33607,12 +33608,12 @@
         <v>700</v>
       </c>
       <c r="I951" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="952" spans="1:9" ht="75">
       <c r="A952" s="19" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B952" s="10" t="s">
         <v>1756</v>
@@ -33636,12 +33637,12 @@
         <v>700</v>
       </c>
       <c r="I952" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="75">
       <c r="A953" s="19" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B953" s="10" t="s">
         <v>1757</v>
@@ -33665,12 +33666,12 @@
         <v>700</v>
       </c>
       <c r="I953" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="954" spans="1:9" ht="75">
       <c r="A954" s="19" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B954" s="10" t="s">
         <v>1758</v>
@@ -33694,12 +33695,12 @@
         <v>700</v>
       </c>
       <c r="I954" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="955" spans="1:9" ht="30">
       <c r="A955" s="19" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B955" s="10" t="s">
         <v>1759</v>
@@ -33721,12 +33722,12 @@
       </c>
       <c r="H955" s="9"/>
       <c r="I955" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="19" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B956" s="10" t="s">
         <v>1760</v>
@@ -33748,12 +33749,12 @@
       </c>
       <c r="H956" s="9"/>
       <c r="I956" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="30">
       <c r="A957" s="19" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B957" s="10" t="s">
         <v>1761</v>
@@ -33775,12 +33776,12 @@
       </c>
       <c r="H957" s="9"/>
       <c r="I957" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="958" spans="1:9" ht="45">
       <c r="A958" s="19" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B958" s="10" t="s">
         <v>1762</v>
@@ -33804,12 +33805,12 @@
         <v>702</v>
       </c>
       <c r="I958" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="959" spans="1:9" ht="75">
       <c r="A959" s="19" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B959" s="10" t="s">
         <v>1763</v>
@@ -33833,12 +33834,12 @@
         <v>700</v>
       </c>
       <c r="I959" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="960" spans="1:9" ht="75">
       <c r="A960" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B960" s="10" t="s">
         <v>1764</v>
@@ -33862,12 +33863,12 @@
         <v>700</v>
       </c>
       <c r="I960" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="961" spans="1:9" ht="75">
       <c r="A961" s="19" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B961" s="10" t="s">
         <v>1765</v>
@@ -33891,12 +33892,12 @@
         <v>700</v>
       </c>
       <c r="I961" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="962" spans="1:9" ht="45">
       <c r="A962" s="19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B962" s="10" t="s">
         <v>1766</v>
@@ -33925,7 +33926,7 @@
     </row>
     <row r="963" spans="1:9" ht="45">
       <c r="A963" s="19" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B963" s="10" t="s">
         <v>1767</v>
@@ -33954,7 +33955,7 @@
     </row>
     <row r="964" spans="1:9" ht="45">
       <c r="A964" s="19" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B964" s="10" t="s">
         <v>1768</v>
@@ -33983,7 +33984,7 @@
     </row>
     <row r="965" spans="1:9" ht="45">
       <c r="A965" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B965" s="10" t="s">
         <v>1769</v>
@@ -34010,7 +34011,7 @@
     </row>
     <row r="966" spans="1:9" ht="45">
       <c r="A966" s="19" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B966" s="10" t="s">
         <v>1770</v>
@@ -34039,7 +34040,7 @@
     </row>
     <row r="967" spans="1:9" ht="45">
       <c r="A967" s="19" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B967" s="10" t="s">
         <v>1771</v>
@@ -34068,7 +34069,7 @@
     </row>
     <row r="968" spans="1:9" ht="45">
       <c r="A968" s="19" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B968" s="10" t="s">
         <v>1772</v>
@@ -34097,7 +34098,7 @@
     </row>
     <row r="969" spans="1:9" ht="45">
       <c r="A969" s="19" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B969" s="10" t="s">
         <v>1772</v>
@@ -34126,7 +34127,7 @@
     </row>
     <row r="970" spans="1:9" ht="45">
       <c r="A970" s="19" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B970" s="10" t="s">
         <v>1773</v>
@@ -34155,7 +34156,7 @@
     </row>
     <row r="971" spans="1:9" ht="45">
       <c r="A971" s="19" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B971" s="10" t="s">
         <v>1774</v>
@@ -34184,7 +34185,7 @@
     </row>
     <row r="972" spans="1:9" ht="45">
       <c r="A972" s="19" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B972" s="10" t="s">
         <v>1767</v>
@@ -34213,7 +34214,7 @@
     </row>
     <row r="973" spans="1:9" ht="45">
       <c r="A973" s="19" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B973" s="10" t="s">
         <v>1775</v>
@@ -34242,7 +34243,7 @@
     </row>
     <row r="974" spans="1:9" ht="75">
       <c r="A974" s="19" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B974" s="10" t="s">
         <v>1776</v>
@@ -34266,12 +34267,12 @@
         <v>700</v>
       </c>
       <c r="I974" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="45">
       <c r="A975" s="19" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B975" s="10" t="s">
         <v>1777</v>
@@ -34300,7 +34301,7 @@
     </row>
     <row r="976" spans="1:9" ht="75">
       <c r="A976" s="19" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B976" s="10" t="s">
         <v>1778</v>
@@ -34324,12 +34325,12 @@
         <v>700</v>
       </c>
       <c r="I976" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="977" spans="1:9" ht="75">
       <c r="A977" s="19" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B977" s="10" t="s">
         <v>1778</v>
@@ -34353,12 +34354,12 @@
         <v>700</v>
       </c>
       <c r="I977" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="978" spans="1:9" ht="75">
       <c r="A978" s="19" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B978" s="10" t="s">
         <v>1779</v>
@@ -34382,12 +34383,12 @@
         <v>700</v>
       </c>
       <c r="I978" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="979" spans="1:9" ht="75">
       <c r="A979" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B979" s="10" t="s">
         <v>1780</v>
@@ -34411,12 +34412,12 @@
         <v>700</v>
       </c>
       <c r="I979" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="980" spans="1:9" ht="75">
       <c r="A980" s="19" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B980" s="10" t="s">
         <v>1781</v>
@@ -34440,12 +34441,12 @@
         <v>700</v>
       </c>
       <c r="I980" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="981" spans="1:9" ht="75">
       <c r="A981" s="19" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B981" s="10" t="s">
         <v>1782</v>
@@ -34469,12 +34470,12 @@
         <v>700</v>
       </c>
       <c r="I981" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="982" spans="1:9" ht="75">
       <c r="A982" s="19" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B982" s="10" t="s">
         <v>1783</v>
@@ -34498,12 +34499,12 @@
         <v>700</v>
       </c>
       <c r="I982" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="983" spans="1:9" ht="75">
       <c r="A983" s="19" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B983" s="10" t="s">
         <v>1784</v>
@@ -34527,12 +34528,12 @@
         <v>700</v>
       </c>
       <c r="I983" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="984" spans="1:9" ht="45">
       <c r="A984" s="19" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B984" s="10" t="s">
         <v>1785</v>
@@ -34561,7 +34562,7 @@
     </row>
     <row r="985" spans="1:9" ht="75">
       <c r="A985" s="19" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B985" s="10" t="s">
         <v>1786</v>
@@ -34585,12 +34586,12 @@
         <v>700</v>
       </c>
       <c r="I985" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="75">
       <c r="A986" s="19" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B986" s="10" t="s">
         <v>1787</v>
@@ -34614,12 +34615,12 @@
         <v>700</v>
       </c>
       <c r="I986" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="987" spans="1:9" ht="75">
       <c r="A987" s="19" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B987" s="10" t="s">
         <v>1788</v>
@@ -34643,12 +34644,12 @@
         <v>700</v>
       </c>
       <c r="I987" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="988" spans="1:9" ht="45">
       <c r="A988" s="19" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B988" s="10" t="s">
         <v>1789</v>
@@ -34677,7 +34678,7 @@
     </row>
     <row r="989" spans="1:9" ht="75">
       <c r="A989" s="19" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B989" s="10" t="s">
         <v>1790</v>
@@ -34701,12 +34702,12 @@
         <v>700</v>
       </c>
       <c r="I989" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="990" spans="1:9" ht="75">
       <c r="A990" s="19" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B990" s="10" t="s">
         <v>1786</v>
@@ -34730,12 +34731,12 @@
         <v>700</v>
       </c>
       <c r="I990" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="991" spans="1:9" ht="30">
       <c r="A991" s="19" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B991" s="10" t="s">
         <v>1746</v>
@@ -34764,7 +34765,7 @@
     </row>
     <row r="992" spans="1:9" ht="45">
       <c r="A992" s="19" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B992" s="10" t="s">
         <v>1791</v>
@@ -34793,7 +34794,7 @@
     </row>
     <row r="993" spans="1:9" ht="30">
       <c r="A993" s="19" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B993" s="10" t="s">
         <v>1792</v>
@@ -34822,7 +34823,7 @@
     </row>
     <row r="994" spans="1:9" ht="30">
       <c r="A994" s="19" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B994" s="10" t="s">
         <v>1793</v>
@@ -34851,7 +34852,7 @@
     </row>
     <row r="995" spans="1:9" ht="30">
       <c r="A995" s="19" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B995" s="10" t="s">
         <v>1794</v>
@@ -34880,10 +34881,10 @@
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="19" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B996" s="10" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C996" s="7" t="s">
         <v>1895</v>
@@ -34909,10 +34910,10 @@
     </row>
     <row r="997" spans="1:9" ht="45">
       <c r="A997" s="19" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B997" s="10" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C997" s="7" t="s">
         <v>1895</v>
@@ -34938,7 +34939,7 @@
     </row>
     <row r="998" spans="1:9" ht="120">
       <c r="A998" s="19" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B998" s="10" t="s">
         <v>1795</v>
@@ -34962,12 +34963,12 @@
         <v>700</v>
       </c>
       <c r="I998" s="12" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="999" spans="1:9" ht="75">
       <c r="A999" s="19" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B999" s="10" t="s">
         <v>1796</v>
@@ -34991,12 +34992,12 @@
         <v>700</v>
       </c>
       <c r="I999" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="75">
       <c r="A1000" s="19" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1000" s="10" t="s">
         <v>1788</v>
@@ -35020,12 +35021,12 @@
         <v>700</v>
       </c>
       <c r="I1000" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="75">
       <c r="A1001" s="19" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1001" s="10" t="s">
         <v>1797</v>
@@ -35049,12 +35050,12 @@
         <v>700</v>
       </c>
       <c r="I1001" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="75">
       <c r="A1002" s="19" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1002" s="10" t="s">
         <v>1797</v>
@@ -35078,12 +35079,12 @@
         <v>700</v>
       </c>
       <c r="I1002" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1003" spans="1:9" ht="75">
       <c r="A1003" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1003" s="10" t="s">
         <v>1797</v>
@@ -35107,12 +35108,12 @@
         <v>700</v>
       </c>
       <c r="I1003" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1004" spans="1:9" ht="75">
       <c r="A1004" s="19" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1004" s="10" t="s">
         <v>1797</v>
@@ -35136,12 +35137,12 @@
         <v>700</v>
       </c>
       <c r="I1004" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="30">
       <c r="A1005" s="19" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1005" s="10" t="s">
         <v>1793</v>
@@ -35170,7 +35171,7 @@
     </row>
     <row r="1006" spans="1:9" ht="30">
       <c r="A1006" s="19" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1006" s="10" t="s">
         <v>1794</v>
@@ -35199,10 +35200,10 @@
     </row>
     <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="19" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1007" s="10" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C1007" s="7" t="s">
         <v>1895</v>
@@ -35228,10 +35229,10 @@
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="19" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1008" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C1008" s="7" t="s">
         <v>1895</v>
@@ -35257,7 +35258,7 @@
     </row>
     <row r="1009" spans="1:9" ht="45">
       <c r="A1009" s="19" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1009" s="10" t="s">
         <v>1798</v>
@@ -35279,12 +35280,12 @@
       </c>
       <c r="H1009" s="9"/>
       <c r="I1009" s="12" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1010" spans="1:9" ht="30">
       <c r="A1010" s="19" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1010" s="10" t="s">
         <v>1799</v>
@@ -35311,7 +35312,7 @@
     </row>
     <row r="1011" spans="1:9" ht="45">
       <c r="A1011" s="19" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1011" s="10" t="s">
         <v>1800</v>
@@ -35333,12 +35334,12 @@
       </c>
       <c r="H1011" s="9"/>
       <c r="I1011" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1012" spans="1:9" ht="45">
       <c r="A1012" s="19" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1012" s="10" t="s">
         <v>1801</v>
@@ -35360,12 +35361,12 @@
       </c>
       <c r="H1012" s="9"/>
       <c r="I1012" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="75">
       <c r="A1013" s="19" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1013" s="10" t="s">
         <v>1802</v>
@@ -35389,12 +35390,12 @@
         <v>700</v>
       </c>
       <c r="I1013" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="19" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1014" s="10" t="s">
         <v>1803</v>
@@ -35416,12 +35417,12 @@
       </c>
       <c r="H1014" s="9"/>
       <c r="I1014" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1015" spans="1:9" ht="45">
       <c r="A1015" s="19" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1015" s="10" t="s">
         <v>1804</v>
@@ -35443,12 +35444,12 @@
       </c>
       <c r="H1015" s="9"/>
       <c r="I1015" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1016" spans="1:9" ht="30">
       <c r="A1016" s="19" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1016" s="10" t="s">
         <v>1793</v>
@@ -35477,7 +35478,7 @@
     </row>
     <row r="1017" spans="1:9" ht="30">
       <c r="A1017" s="19" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1017" s="10" t="s">
         <v>1794</v>
@@ -35506,7 +35507,7 @@
     </row>
     <row r="1018" spans="1:9" ht="45">
       <c r="A1018" s="19" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1018" s="10" t="s">
         <v>1777</v>
@@ -35535,7 +35536,7 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="19" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1019" s="10" t="s">
         <v>1805</v>
@@ -35557,12 +35558,12 @@
       </c>
       <c r="H1019" s="9"/>
       <c r="I1019" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="45">
       <c r="A1020" s="19" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1020" s="10" t="s">
         <v>1806</v>
@@ -35584,12 +35585,12 @@
       </c>
       <c r="H1020" s="9"/>
       <c r="I1020" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="19" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1021" s="10" t="s">
         <v>1806</v>
@@ -35611,12 +35612,12 @@
       </c>
       <c r="H1021" s="9"/>
       <c r="I1021" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1022" spans="1:9" ht="45">
       <c r="A1022" s="19" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1022" s="10" t="s">
         <v>1806</v>
@@ -35638,12 +35639,12 @@
       </c>
       <c r="H1022" s="9"/>
       <c r="I1022" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1023" spans="1:9" ht="45">
       <c r="A1023" s="19" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1023" s="10" t="s">
         <v>1806</v>
@@ -35665,12 +35666,12 @@
       </c>
       <c r="H1023" s="9"/>
       <c r="I1023" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="19" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1024" s="10" t="s">
         <v>1806</v>
@@ -35692,12 +35693,12 @@
       </c>
       <c r="H1024" s="9"/>
       <c r="I1024" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="19" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1025" s="10" t="s">
         <v>1806</v>
@@ -35719,12 +35720,12 @@
       </c>
       <c r="H1025" s="9"/>
       <c r="I1025" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="19" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1026" s="10" t="s">
         <v>1807</v>
@@ -35746,12 +35747,12 @@
       </c>
       <c r="H1026" s="9"/>
       <c r="I1026" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1027" spans="1:9" ht="45">
       <c r="A1027" s="19" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1027" s="10" t="s">
         <v>1808</v>
@@ -35778,7 +35779,7 @@
     </row>
     <row r="1028" spans="1:9" ht="60">
       <c r="A1028" s="19" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1028" s="10" t="s">
         <v>1809</v>
@@ -35805,7 +35806,7 @@
     </row>
     <row r="1029" spans="1:9" ht="45">
       <c r="A1029" s="19" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1029" s="10" t="s">
         <v>1810</v>
@@ -35827,12 +35828,12 @@
       </c>
       <c r="H1029" s="9"/>
       <c r="I1029" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="19" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1030" s="10" t="s">
         <v>1810</v>
@@ -35854,12 +35855,12 @@
       </c>
       <c r="H1030" s="9"/>
       <c r="I1030" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="19" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1031" s="10" t="s">
         <v>1811</v>
@@ -35881,12 +35882,12 @@
       </c>
       <c r="H1031" s="9"/>
       <c r="I1031" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="19" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1032" s="10" t="s">
         <v>1812</v>
@@ -35908,12 +35909,12 @@
       </c>
       <c r="H1032" s="9"/>
       <c r="I1032" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1033" spans="1:9" ht="45">
       <c r="A1033" s="19" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1033" s="10" t="s">
         <v>1813</v>
@@ -35935,12 +35936,12 @@
       </c>
       <c r="H1033" s="9"/>
       <c r="I1033" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="19" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1034" s="10" t="s">
         <v>1814</v>
@@ -35962,12 +35963,12 @@
       </c>
       <c r="H1034" s="9"/>
       <c r="I1034" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="19" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1035" s="10" t="s">
         <v>1815</v>
@@ -35989,12 +35990,12 @@
       </c>
       <c r="H1035" s="9"/>
       <c r="I1035" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1036" spans="1:9" ht="45">
       <c r="A1036" s="19" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1036" s="10" t="s">
         <v>1816</v>
@@ -36016,12 +36017,12 @@
       </c>
       <c r="H1036" s="9"/>
       <c r="I1036" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1037" spans="1:9" ht="45">
       <c r="A1037" s="19" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1037" s="10" t="s">
         <v>1817</v>
@@ -36043,12 +36044,12 @@
       </c>
       <c r="H1037" s="9"/>
       <c r="I1037" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1038" spans="1:9" ht="75">
       <c r="A1038" s="19" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1038" s="10" t="s">
         <v>1818</v>
@@ -36072,12 +36073,12 @@
         <v>700</v>
       </c>
       <c r="I1038" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1039" spans="1:9" ht="75">
       <c r="A1039" s="19" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1039" s="10" t="s">
         <v>1819</v>
@@ -36101,12 +36102,12 @@
         <v>700</v>
       </c>
       <c r="I1039" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="75">
       <c r="A1040" s="19" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1040" s="10" t="s">
         <v>1819</v>
@@ -36130,12 +36131,12 @@
         <v>700</v>
       </c>
       <c r="I1040" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1041" spans="1:9" ht="45">
       <c r="A1041" s="19" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1041" s="10" t="s">
         <v>1820</v>
@@ -36157,12 +36158,12 @@
       </c>
       <c r="H1041" s="9"/>
       <c r="I1041" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1042" spans="1:9" ht="45">
       <c r="A1042" s="19" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1042" s="10" t="s">
         <v>1821</v>
@@ -36189,7 +36190,7 @@
     </row>
     <row r="1043" spans="1:9" ht="75">
       <c r="A1043" s="19" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1043" s="10" t="s">
         <v>1822</v>
@@ -36213,12 +36214,12 @@
         <v>700</v>
       </c>
       <c r="I1043" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="75">
       <c r="A1044" s="19" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1044" s="10" t="s">
         <v>1823</v>
@@ -36242,12 +36243,12 @@
         <v>700</v>
       </c>
       <c r="I1044" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1045" spans="1:9" ht="75">
       <c r="A1045" s="19" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1045" s="10" t="s">
         <v>1824</v>
@@ -36271,12 +36272,12 @@
         <v>700</v>
       </c>
       <c r="I1045" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1046" spans="1:9" ht="75">
       <c r="A1046" s="19" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B1046" s="10" t="s">
         <v>1825</v>
@@ -36300,12 +36301,12 @@
         <v>700</v>
       </c>
       <c r="I1046" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1047" spans="1:9" ht="45">
       <c r="A1047" s="19" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B1047" s="10" t="s">
         <v>1826</v>
@@ -36327,12 +36328,12 @@
       </c>
       <c r="H1047" s="9"/>
       <c r="I1047" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1048" spans="1:9" ht="45">
       <c r="A1048" s="19" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B1048" s="10" t="s">
         <v>1827</v>
@@ -36354,12 +36355,12 @@
       </c>
       <c r="H1048" s="9"/>
       <c r="I1048" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1049" spans="1:9" ht="75">
       <c r="A1049" s="19" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B1049" s="10" t="s">
         <v>1828</v>
@@ -36383,12 +36384,12 @@
         <v>700</v>
       </c>
       <c r="I1049" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1050" spans="1:9" ht="45">
       <c r="A1050" s="19" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1050" s="10" t="s">
         <v>1829</v>
@@ -36415,7 +36416,7 @@
     </row>
     <row r="1051" spans="1:9" ht="45">
       <c r="A1051" s="19" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1051" s="10" t="s">
         <v>1830</v>
@@ -36439,12 +36440,12 @@
         <v>702</v>
       </c>
       <c r="I1051" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1052" spans="1:9" ht="45">
       <c r="A1052" s="19" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1052" s="10" t="s">
         <v>1831</v>
@@ -36468,12 +36469,12 @@
         <v>702</v>
       </c>
       <c r="I1052" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1053" spans="1:9" ht="45">
       <c r="A1053" s="19" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1053" s="10" t="s">
         <v>1832</v>
@@ -36495,12 +36496,12 @@
       </c>
       <c r="H1053" s="9"/>
       <c r="I1053" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1054" spans="1:9" ht="45">
       <c r="A1054" s="19" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1054" s="10" t="s">
         <v>1833</v>
@@ -36522,12 +36523,12 @@
       </c>
       <c r="H1054" s="9"/>
       <c r="I1054" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1055" spans="1:9" ht="45">
       <c r="A1055" s="19" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B1055" s="10" t="s">
         <v>1834</v>
@@ -36549,12 +36550,12 @@
       </c>
       <c r="H1055" s="9"/>
       <c r="I1055" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1056" spans="1:9" ht="45">
       <c r="A1056" s="19" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B1056" s="10" t="s">
         <v>1835</v>
@@ -36576,12 +36577,12 @@
       </c>
       <c r="H1056" s="9"/>
       <c r="I1056" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="45">
       <c r="A1057" s="19" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B1057" s="10" t="s">
         <v>1836</v>
@@ -36608,7 +36609,7 @@
     </row>
     <row r="1058" spans="1:9" ht="45">
       <c r="A1058" s="19" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1058" s="10" t="s">
         <v>1837</v>
@@ -36630,12 +36631,12 @@
       </c>
       <c r="H1058" s="9"/>
       <c r="I1058" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1059" spans="1:9" ht="45">
       <c r="A1059" s="19" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1059" s="10" t="s">
         <v>1838</v>
@@ -36657,12 +36658,12 @@
       </c>
       <c r="H1059" s="9"/>
       <c r="I1059" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1060" spans="1:9" ht="45">
       <c r="A1060" s="19" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B1060" s="10" t="s">
         <v>1839</v>
@@ -36684,12 +36685,12 @@
       </c>
       <c r="H1060" s="9"/>
       <c r="I1060" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1061" spans="1:9" ht="45">
       <c r="A1061" s="19" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1061" s="10" t="s">
         <v>1840</v>
@@ -36711,12 +36712,12 @@
       </c>
       <c r="H1061" s="9"/>
       <c r="I1061" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1062" spans="1:9" ht="45">
       <c r="A1062" s="19" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1062" s="10" t="s">
         <v>1841</v>
@@ -36738,12 +36739,12 @@
       </c>
       <c r="H1062" s="9"/>
       <c r="I1062" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1063" spans="1:9" ht="75">
       <c r="A1063" s="19" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1063" s="10" t="s">
         <v>1749</v>
@@ -36767,12 +36768,12 @@
         <v>700</v>
       </c>
       <c r="I1063" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1064" spans="1:9" ht="75">
       <c r="A1064" s="19" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1064" s="10" t="s">
         <v>1782</v>
@@ -36796,12 +36797,12 @@
         <v>700</v>
       </c>
       <c r="I1064" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1065" spans="1:9" ht="30">
       <c r="A1065" s="19" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1065" s="10" t="s">
         <v>1842</v>
@@ -36823,12 +36824,12 @@
       </c>
       <c r="H1065" s="9"/>
       <c r="I1065" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1066" spans="1:9" ht="45">
       <c r="A1066" s="19" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1066" s="10" t="s">
         <v>1843</v>
@@ -36855,7 +36856,7 @@
     </row>
     <row r="1067" spans="1:9" ht="30">
       <c r="A1067" s="19" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1067" s="10" t="s">
         <v>1844</v>
@@ -36882,7 +36883,7 @@
     </row>
     <row r="1068" spans="1:9" ht="45">
       <c r="A1068" s="19" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1068" s="10" t="s">
         <v>1845</v>
@@ -36904,12 +36905,12 @@
       </c>
       <c r="H1068" s="9"/>
       <c r="I1068" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1069" spans="1:9" ht="60">
       <c r="A1069" s="19" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1069" s="10" t="s">
         <v>1846</v>
@@ -36931,12 +36932,12 @@
       </c>
       <c r="H1069" s="9"/>
       <c r="I1069" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1070" spans="1:9" ht="75">
       <c r="A1070" s="19" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1070" s="10" t="s">
         <v>1847</v>
@@ -36958,12 +36959,12 @@
       </c>
       <c r="H1070" s="9"/>
       <c r="I1070" s="12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1071" spans="1:9" ht="45">
       <c r="A1071" s="19" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1071" s="10" t="s">
         <v>1848</v>
@@ -36987,12 +36988,12 @@
         <v>702</v>
       </c>
       <c r="I1071" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1072" spans="1:9" ht="45">
       <c r="A1072" s="19" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1072" s="10" t="s">
         <v>1849</v>
@@ -37016,12 +37017,12 @@
         <v>702</v>
       </c>
       <c r="I1072" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="75">
       <c r="A1073" s="19" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1073" s="10" t="s">
         <v>1850</v>
@@ -37045,12 +37046,12 @@
         <v>700</v>
       </c>
       <c r="I1073" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1074" spans="1:9" ht="75">
       <c r="A1074" s="19" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1074" s="10" t="s">
         <v>1851</v>
@@ -37074,12 +37075,12 @@
         <v>700</v>
       </c>
       <c r="I1074" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1075" spans="1:9" ht="75">
       <c r="A1075" s="19" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1075" s="10" t="s">
         <v>1852</v>
@@ -37103,12 +37104,12 @@
         <v>700</v>
       </c>
       <c r="I1075" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1076" spans="1:9" ht="75">
       <c r="A1076" s="19" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1076" s="10" t="s">
         <v>1853</v>
@@ -37132,12 +37133,12 @@
         <v>700</v>
       </c>
       <c r="I1076" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1077" spans="1:9" ht="75">
       <c r="A1077" s="19" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1077" s="10" t="s">
         <v>1854</v>
@@ -37161,12 +37162,12 @@
         <v>700</v>
       </c>
       <c r="I1077" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1078" spans="1:9" ht="75">
       <c r="A1078" s="19" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1078" s="10" t="s">
         <v>1855</v>
@@ -37190,12 +37191,12 @@
         <v>700</v>
       </c>
       <c r="I1078" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1079" spans="1:9" ht="75">
       <c r="A1079" s="19" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B1079" s="10" t="s">
         <v>1856</v>
@@ -37219,12 +37220,12 @@
         <v>700</v>
       </c>
       <c r="I1079" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1080" spans="1:9" ht="75">
       <c r="A1080" s="19" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1080" s="10" t="s">
         <v>1857</v>
@@ -37248,12 +37249,12 @@
         <v>700</v>
       </c>
       <c r="I1080" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1081" spans="1:9" ht="75">
       <c r="A1081" s="19" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B1081" s="10" t="s">
         <v>1858</v>
@@ -37277,12 +37278,12 @@
         <v>700</v>
       </c>
       <c r="I1081" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1082" spans="1:9" ht="75">
       <c r="A1082" s="19" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B1082" s="10" t="s">
         <v>1859</v>
@@ -37306,12 +37307,12 @@
         <v>700</v>
       </c>
       <c r="I1082" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1083" spans="1:9" ht="75">
       <c r="A1083" s="19" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1083" s="10" t="s">
         <v>1860</v>
@@ -37335,12 +37336,12 @@
         <v>700</v>
       </c>
       <c r="I1083" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1084" spans="1:9" ht="75">
       <c r="A1084" s="19" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1084" s="10" t="s">
         <v>1856</v>
@@ -37364,12 +37365,12 @@
         <v>700</v>
       </c>
       <c r="I1084" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1085" spans="1:9" ht="75">
       <c r="A1085" s="19" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1085" s="10" t="s">
         <v>1861</v>
@@ -37393,12 +37394,12 @@
         <v>700</v>
       </c>
       <c r="I1085" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1086" spans="1:9" ht="75">
       <c r="A1086" s="19" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1086" s="10" t="s">
         <v>1755</v>
@@ -37422,12 +37423,12 @@
         <v>700</v>
       </c>
       <c r="I1086" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="75">
       <c r="A1087" s="19" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1087" s="10" t="s">
         <v>1862</v>
@@ -37451,12 +37452,12 @@
         <v>700</v>
       </c>
       <c r="I1087" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="75">
       <c r="A1088" s="19" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1088" s="10" t="s">
         <v>1863</v>
@@ -37480,12 +37481,12 @@
         <v>700</v>
       </c>
       <c r="I1088" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1089" spans="1:9" ht="75">
       <c r="A1089" s="19" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1089" s="10" t="s">
         <v>1782</v>
@@ -37509,12 +37510,12 @@
         <v>700</v>
       </c>
       <c r="I1089" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1090" spans="1:9" ht="75">
       <c r="A1090" s="19" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1090" s="10" t="s">
         <v>1864</v>
@@ -37538,12 +37539,12 @@
         <v>700</v>
       </c>
       <c r="I1090" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="75">
       <c r="A1091" s="19" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1091" s="10" t="s">
         <v>1865</v>
@@ -37567,12 +37568,12 @@
         <v>700</v>
       </c>
       <c r="I1091" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="75">
       <c r="A1092" s="19" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1092" s="10" t="s">
         <v>1784</v>
@@ -37596,12 +37597,12 @@
         <v>700</v>
       </c>
       <c r="I1092" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1093" spans="1:9" ht="75">
       <c r="A1093" s="19" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1093" s="10" t="s">
         <v>1797</v>
@@ -37625,12 +37626,12 @@
         <v>700</v>
       </c>
       <c r="I1093" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1094" spans="1:9" ht="75">
       <c r="A1094" s="19" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1094" s="10" t="s">
         <v>1779</v>
@@ -37654,12 +37655,12 @@
         <v>700</v>
       </c>
       <c r="I1094" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="75">
       <c r="A1095" s="19" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1095" s="10" t="s">
         <v>1866</v>
@@ -37683,12 +37684,12 @@
         <v>700</v>
       </c>
       <c r="I1095" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1096" spans="1:9" ht="75">
       <c r="A1096" s="19" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1096" s="10" t="s">
         <v>1867</v>
@@ -37712,12 +37713,12 @@
         <v>700</v>
       </c>
       <c r="I1096" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1097" spans="1:9" ht="75">
       <c r="A1097" s="19" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1097" s="10" t="s">
         <v>1868</v>
@@ -37741,12 +37742,12 @@
         <v>700</v>
       </c>
       <c r="I1097" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1098" spans="1:9" ht="75">
       <c r="A1098" s="19" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1098" s="10" t="s">
         <v>1869</v>
@@ -37770,12 +37771,12 @@
         <v>700</v>
       </c>
       <c r="I1098" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1099" spans="1:9" ht="45">
       <c r="A1099" s="19" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1099" s="10" t="s">
         <v>1870</v>
@@ -37799,12 +37800,12 @@
         <v>702</v>
       </c>
       <c r="I1099" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="75">
       <c r="A1100" s="19" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1100" s="10" t="s">
         <v>1871</v>
@@ -37828,12 +37829,12 @@
         <v>700</v>
       </c>
       <c r="I1100" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="75">
       <c r="A1101" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1101" s="10" t="s">
         <v>1872</v>
@@ -37857,12 +37858,12 @@
         <v>700</v>
       </c>
       <c r="I1101" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="75">
       <c r="A1102" s="19" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1102" s="10" t="s">
         <v>1873</v>
@@ -37886,12 +37887,12 @@
         <v>700</v>
       </c>
       <c r="I1102" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="19" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1103" s="10" t="s">
         <v>1874</v>
@@ -37915,12 +37916,12 @@
         <v>702</v>
       </c>
       <c r="I1103" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1104" spans="1:9" ht="30">
       <c r="A1104" s="19" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1104" s="10" t="s">
         <v>1745</v>
@@ -37949,7 +37950,7 @@
     </row>
     <row r="1105" spans="1:9" ht="75">
       <c r="A1105" s="19" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1105" s="10" t="s">
         <v>1875</v>
@@ -37973,12 +37974,12 @@
         <v>700</v>
       </c>
       <c r="I1105" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1106" spans="1:9" ht="75">
       <c r="A1106" s="19" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1106" s="10" t="s">
         <v>1876</v>
@@ -38002,12 +38003,12 @@
         <v>700</v>
       </c>
       <c r="I1106" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1107" spans="1:9" ht="75">
       <c r="A1107" s="19" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1107" s="10" t="s">
         <v>1877</v>
@@ -38031,15 +38032,15 @@
         <v>700</v>
       </c>
       <c r="I1107" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1108" spans="1:9" ht="30">
       <c r="A1108" s="19" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1108" s="20" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C1108" s="18" t="s">
         <v>678</v>
@@ -38057,15 +38058,15 @@
         <v>714</v>
       </c>
       <c r="I1108" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1109" spans="1:9" ht="45">
       <c r="A1109" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1109" s="20" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C1109" s="18" t="s">
         <v>678</v>
@@ -38083,15 +38084,15 @@
         <v>714</v>
       </c>
       <c r="I1109" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1110" spans="1:9" ht="45">
       <c r="A1110" s="19" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1110" s="20" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C1110" s="18" t="s">
         <v>678</v>
@@ -38109,15 +38110,15 @@
         <v>714</v>
       </c>
       <c r="I1110" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1111" spans="1:9" ht="30">
       <c r="A1111" s="19" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1111" s="20" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C1111" s="18" t="s">
         <v>678</v>
@@ -38135,15 +38136,15 @@
         <v>714</v>
       </c>
       <c r="I1111" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1112" spans="1:9" ht="30">
       <c r="A1112" s="19" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1112" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C1112" s="18" t="s">
         <v>678</v>
@@ -38161,15 +38162,15 @@
         <v>714</v>
       </c>
       <c r="I1112" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1113" spans="1:9" ht="30">
       <c r="A1113" s="19" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1113" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C1113" s="18" t="s">
         <v>678</v>
@@ -38187,15 +38188,15 @@
         <v>714</v>
       </c>
       <c r="I1113" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1114" spans="1:9" ht="30">
       <c r="A1114" s="19" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1114" s="20" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C1114" s="18" t="s">
         <v>678</v>
@@ -38213,15 +38214,15 @@
         <v>714</v>
       </c>
       <c r="I1114" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1115" spans="1:9" ht="30">
       <c r="A1115" s="19" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1115" s="20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C1115" s="18" t="s">
         <v>678</v>
@@ -38239,15 +38240,15 @@
         <v>714</v>
       </c>
       <c r="I1115" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1116" spans="1:9" ht="30">
       <c r="A1116" s="19" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1116" s="20" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C1116" s="18" t="s">
         <v>678</v>
@@ -38265,15 +38266,15 @@
         <v>714</v>
       </c>
       <c r="I1116" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1117" spans="1:9" ht="30">
       <c r="A1117" s="19" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1117" s="20" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C1117" s="18" t="s">
         <v>678</v>
@@ -38291,15 +38292,15 @@
         <v>714</v>
       </c>
       <c r="I1117" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1118" spans="1:9" ht="30">
       <c r="A1118" s="19" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B1118" s="20" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C1118" s="18" t="s">
         <v>678</v>
@@ -38317,15 +38318,15 @@
         <v>714</v>
       </c>
       <c r="I1118" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1119" spans="1:9" ht="30">
       <c r="A1119" s="19" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1119" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C1119" s="18" t="s">
         <v>678</v>
@@ -38343,15 +38344,15 @@
         <v>714</v>
       </c>
       <c r="I1119" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1120" spans="1:9" ht="30">
       <c r="A1120" s="19" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1120" s="20" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C1120" s="18" t="s">
         <v>678</v>
@@ -38369,15 +38370,15 @@
         <v>714</v>
       </c>
       <c r="I1120" s="6" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1121" spans="1:9" ht="30">
       <c r="A1121" s="19" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1121" s="20" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C1121" s="20" t="s">
         <v>1740</v>
@@ -38395,15 +38396,15 @@
         <v>714</v>
       </c>
       <c r="I1121" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1122" spans="1:9" ht="30">
       <c r="A1122" s="19" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1122" s="20" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C1122" s="20" t="s">
         <v>1740</v>
@@ -38421,15 +38422,15 @@
         <v>714</v>
       </c>
       <c r="I1122" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1123" spans="1:9" ht="45">
       <c r="A1123" s="19" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1123" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1123" s="20" t="s">
         <v>1740</v>
@@ -38447,15 +38448,15 @@
         <v>714</v>
       </c>
       <c r="I1123" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1124" spans="1:9" ht="45">
       <c r="A1124" s="19" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B1124" s="20" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C1124" s="20" t="s">
         <v>1740</v>
@@ -38473,15 +38474,15 @@
         <v>714</v>
       </c>
       <c r="I1124" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
       <c r="A1125" s="19" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1125" s="20" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C1125" s="20" t="s">
         <v>1740</v>
@@ -38499,15 +38500,15 @@
         <v>714</v>
       </c>
       <c r="I1125" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1126" spans="1:9" ht="30">
       <c r="A1126" s="19" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1126" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C1126" s="20" t="s">
         <v>1740</v>
@@ -38525,15 +38526,15 @@
         <v>714</v>
       </c>
       <c r="I1126" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1127" spans="1:9" ht="30">
       <c r="A1127" s="19" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1127" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C1127" s="20" t="s">
         <v>1740</v>
@@ -38551,15 +38552,15 @@
         <v>714</v>
       </c>
       <c r="I1127" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1128" spans="1:9" ht="30">
       <c r="A1128" s="19" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1128" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C1128" s="20" t="s">
         <v>1740</v>
@@ -38577,15 +38578,15 @@
         <v>714</v>
       </c>
       <c r="I1128" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1129" spans="1:9" ht="30">
       <c r="A1129" s="19" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1129" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C1129" s="20" t="s">
         <v>1740</v>
@@ -38603,15 +38604,15 @@
         <v>714</v>
       </c>
       <c r="I1129" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1130" spans="1:9" ht="30">
       <c r="A1130" s="19" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1130" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C1130" s="20" t="s">
         <v>1740</v>
@@ -38629,15 +38630,15 @@
         <v>714</v>
       </c>
       <c r="I1130" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1131" spans="1:9" ht="30">
       <c r="A1131" s="19" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1131" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C1131" s="20" t="s">
         <v>1740</v>
@@ -38655,15 +38656,15 @@
         <v>714</v>
       </c>
       <c r="I1131" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1132" spans="1:9" ht="30">
       <c r="A1132" s="19" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1132" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C1132" s="20" t="s">
         <v>1740</v>
@@ -38681,15 +38682,15 @@
         <v>714</v>
       </c>
       <c r="I1132" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1133" spans="1:9" ht="30">
       <c r="A1133" s="19" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1133" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C1133" s="20" t="s">
         <v>1740</v>
@@ -38707,15 +38708,15 @@
         <v>714</v>
       </c>
       <c r="I1133" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1134" spans="1:9" ht="30">
       <c r="A1134" s="19" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1134" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C1134" s="20" t="s">
         <v>1740</v>
@@ -38733,15 +38734,15 @@
         <v>714</v>
       </c>
       <c r="I1134" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1135" spans="1:9" ht="30">
       <c r="A1135" s="19" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1135" s="20" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C1135" s="20" t="s">
         <v>1740</v>
@@ -38759,15 +38760,15 @@
         <v>714</v>
       </c>
       <c r="I1135" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1136" spans="1:9" ht="30">
       <c r="A1136" s="19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B1136" s="20" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C1136" s="20" t="s">
         <v>1740</v>
@@ -38785,15 +38786,15 @@
         <v>714</v>
       </c>
       <c r="I1136" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1137" spans="1:9" ht="30">
       <c r="A1137" s="19" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1137" s="20" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C1137" s="20" t="s">
         <v>1740</v>
@@ -38811,15 +38812,15 @@
         <v>714</v>
       </c>
       <c r="I1137" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1138" spans="1:9" ht="30">
       <c r="A1138" s="19" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1138" s="20" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C1138" s="20" t="s">
         <v>1740</v>
@@ -38837,15 +38838,15 @@
         <v>714</v>
       </c>
       <c r="I1138" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1139" spans="1:9" ht="75">
       <c r="A1139" s="19" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1139" s="20" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C1139" s="20" t="s">
         <v>1740</v>
@@ -38863,15 +38864,15 @@
         <v>714</v>
       </c>
       <c r="I1139" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1140" spans="1:9" ht="60">
       <c r="A1140" s="19" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B1140" s="20" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C1140" s="20" t="s">
         <v>1740</v>
@@ -38889,15 +38890,15 @@
         <v>714</v>
       </c>
       <c r="I1140" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1141" spans="1:9" ht="45">
       <c r="A1141" s="19" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B1141" s="20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C1141" s="20" t="s">
         <v>1740</v>
@@ -38915,15 +38916,15 @@
         <v>714</v>
       </c>
       <c r="I1141" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="19" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B1142" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C1142" s="20" t="s">
         <v>1740</v>
@@ -38941,15 +38942,15 @@
         <v>714</v>
       </c>
       <c r="I1142" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="19" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1143" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C1143" s="20" t="s">
         <v>1740</v>
@@ -38967,15 +38968,15 @@
         <v>714</v>
       </c>
       <c r="I1143" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1144" spans="1:9" ht="30">
       <c r="A1144" s="19" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B1144" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C1144" s="20" t="s">
         <v>1740</v>
@@ -38993,15 +38994,15 @@
         <v>714</v>
       </c>
       <c r="I1144" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1145" spans="1:9" ht="60">
       <c r="A1145" s="19" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B1145" s="20" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C1145" s="20" t="s">
         <v>1741</v>
@@ -39019,15 +39020,15 @@
         <v>714</v>
       </c>
       <c r="I1145" s="21" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1146" spans="1:9" ht="45">
       <c r="A1146" s="19" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1146" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1146" s="20" t="s">
         <v>673</v>
@@ -39050,10 +39051,10 @@
     </row>
     <row r="1147" spans="1:9" ht="45">
       <c r="A1147" s="19" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B1147" s="20" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C1147" s="20" t="s">
         <v>673</v>
@@ -39076,10 +39077,10 @@
     </row>
     <row r="1148" spans="1:9" ht="30">
       <c r="A1148" s="19" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B1148" s="20" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C1148" s="20" t="s">
         <v>673</v>
@@ -39102,10 +39103,10 @@
     </row>
     <row r="1149" spans="1:9" ht="45">
       <c r="A1149" s="19" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B1149" s="20" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C1149" s="20" t="s">
         <v>673</v>
@@ -39128,10 +39129,10 @@
     </row>
     <row r="1150" spans="1:9" ht="30">
       <c r="A1150" s="19" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1150" s="20" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C1150" s="20" t="s">
         <v>673</v>
@@ -39154,10 +39155,10 @@
     </row>
     <row r="1151" spans="1:9" ht="30">
       <c r="A1151" s="19" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1151" s="20" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C1151" s="20" t="s">
         <v>673</v>
@@ -39180,10 +39181,10 @@
     </row>
     <row r="1152" spans="1:9" ht="30">
       <c r="A1152" s="19" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1152" s="20" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C1152" s="20" t="s">
         <v>673</v>
@@ -39206,10 +39207,10 @@
     </row>
     <row r="1153" spans="1:9" ht="30">
       <c r="A1153" s="19" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1153" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C1153" s="20" t="s">
         <v>673</v>
@@ -39232,10 +39233,10 @@
     </row>
     <row r="1154" spans="1:9" ht="30">
       <c r="A1154" s="19" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1154" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C1154" s="20" t="s">
         <v>673</v>
@@ -39258,10 +39259,10 @@
     </row>
     <row r="1155" spans="1:9" ht="30">
       <c r="A1155" s="19" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1155" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C1155" s="20" t="s">
         <v>673</v>
@@ -39284,10 +39285,10 @@
     </row>
     <row r="1156" spans="1:9" ht="45">
       <c r="A1156" s="19" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1156" s="20" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C1156" s="20" t="s">
         <v>673</v>
@@ -39310,10 +39311,10 @@
     </row>
     <row r="1157" spans="1:9" ht="30">
       <c r="A1157" s="19" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1157" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C1157" s="20" t="s">
         <v>673</v>
@@ -39336,10 +39337,10 @@
     </row>
     <row r="1158" spans="1:9" ht="30">
       <c r="A1158" s="19" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1158" s="20" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C1158" s="20" t="s">
         <v>673</v>
@@ -39362,10 +39363,10 @@
     </row>
     <row r="1159" spans="1:9" ht="45">
       <c r="A1159" s="19" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1159" s="20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C1159" s="20" t="s">
         <v>673</v>
@@ -39388,10 +39389,10 @@
     </row>
     <row r="1160" spans="1:9" ht="45">
       <c r="A1160" s="19" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1160" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C1160" s="20" t="s">
         <v>673</v>
@@ -39414,10 +39415,10 @@
     </row>
     <row r="1161" spans="1:9" ht="30">
       <c r="A1161" s="19" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1161" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C1161" s="20" t="s">
         <v>673</v>
@@ -39440,10 +39441,10 @@
     </row>
     <row r="1162" spans="1:9" ht="30">
       <c r="A1162" s="19" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1162" s="20" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C1162" s="20" t="s">
         <v>673</v>
@@ -39466,10 +39467,10 @@
     </row>
     <row r="1163" spans="1:9" ht="45">
       <c r="A1163" s="19" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1163" s="20" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C1163" s="20" t="s">
         <v>673</v>
@@ -39492,10 +39493,10 @@
     </row>
     <row r="1164" spans="1:9" ht="30">
       <c r="A1164" s="19" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1164" s="20" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C1164" s="20" t="s">
         <v>673</v>
@@ -39518,10 +39519,10 @@
     </row>
     <row r="1165" spans="1:9" ht="30">
       <c r="A1165" s="19" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1165" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C1165" s="20" t="s">
         <v>673</v>
@@ -39544,10 +39545,10 @@
     </row>
     <row r="1166" spans="1:9" ht="30">
       <c r="A1166" s="19" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1166" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C1166" s="20" t="s">
         <v>673</v>
@@ -39570,10 +39571,10 @@
     </row>
     <row r="1167" spans="1:9" ht="30">
       <c r="A1167" s="19" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1167" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C1167" s="20" t="s">
         <v>673</v>
